--- a/resources/scripts/Units.xlsx
+++ b/resources/scripts/Units.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasTrappe\PycharmProjects\WarnoModEditor\resources\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19C3964-F7B2-40AC-B2F9-BB5C4E633107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D911D6A-36A8-4D31-AB36-2209E311658D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{100B8A9B-1467-4036-B196-90CCBCF25F6F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{100B8A9B-1467-4036-B196-90CCBCF25F6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
+    <sheet name="Ammo" sheetId="2" r:id="rId2"/>
+    <sheet name="Turrets" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
   <si>
     <t>unit_name</t>
   </si>
@@ -81,6 +83,189 @@
   </si>
   <si>
     <t>Top_armor_type</t>
+  </si>
+  <si>
+    <t>T64BV_SOV</t>
+  </si>
+  <si>
+    <t>T64BV_CMD_SOV</t>
+  </si>
+  <si>
+    <t>T64B_SOV</t>
+  </si>
+  <si>
+    <t>T64B_CMD_SOV</t>
+  </si>
+  <si>
+    <t>T62M_SOV</t>
+  </si>
+  <si>
+    <t>T62M1_SOV</t>
+  </si>
+  <si>
+    <t>T62M_CMD_SOV</t>
+  </si>
+  <si>
+    <t>T62MV_SOV</t>
+  </si>
+  <si>
+    <t>T80U_SOV</t>
+  </si>
+  <si>
+    <t>T80UD_SOV</t>
+  </si>
+  <si>
+    <t>T80BV_Beast_SOV</t>
+  </si>
+  <si>
+    <t>TO_55_SOV</t>
+  </si>
+  <si>
+    <t>T72_DDR</t>
+  </si>
+  <si>
+    <t>T72M1_DDR</t>
+  </si>
+  <si>
+    <t>T72M_DDR</t>
+  </si>
+  <si>
+    <t>T72M_CMD_DDR</t>
+  </si>
+  <si>
+    <t>T55AM2B_DDR</t>
+  </si>
+  <si>
+    <t>T55AM2_DDR</t>
+  </si>
+  <si>
+    <t>T55AM2_CMD_DDR</t>
+  </si>
+  <si>
+    <t>TO_55_DDR</t>
+  </si>
+  <si>
+    <t>T55A_CMD_DDR</t>
+  </si>
+  <si>
+    <t>T55A_DDR</t>
+  </si>
+  <si>
+    <t>Leopard_1A1_CMD_RFA</t>
+  </si>
+  <si>
+    <t>Leopard_1A5_CMD_RFA</t>
+  </si>
+  <si>
+    <t>Leopard_1A5_RFA</t>
+  </si>
+  <si>
+    <t>Leopard_1A1_RFA</t>
+  </si>
+  <si>
+    <t>AMX_30_B2_Brennus_FR</t>
+  </si>
+  <si>
+    <t>AMX_30_B2_FR</t>
+  </si>
+  <si>
+    <t>AMX_30_B2_CMD_FR</t>
+  </si>
+  <si>
+    <t>AMX_30_B_FR</t>
+  </si>
+  <si>
+    <t>AMX_30_B_CMD_FR</t>
+  </si>
+  <si>
+    <t>Leopard_2A4_RFA</t>
+  </si>
+  <si>
+    <t>Leopard_2A3_CMD_RFA</t>
+  </si>
+  <si>
+    <t>Leopard_2A3_RFA</t>
+  </si>
+  <si>
+    <t>FV4201_Chieftain_CMD_UK</t>
+  </si>
+  <si>
+    <t>FV4201_Chieftain_Mk11_CMD_UK</t>
+  </si>
+  <si>
+    <t>FV4201_Chieftain_Mk11_UK</t>
+  </si>
+  <si>
+    <t>FV4201_Chieftain_Mk9_UK</t>
+  </si>
+  <si>
+    <t>FV4201_Chieftain_UK</t>
+  </si>
+  <si>
+    <t>M1A1HA_Abrams_CMD_US</t>
+  </si>
+  <si>
+    <t>M1A1HA_Abrams_US</t>
+  </si>
+  <si>
+    <t>M1A1_Abrams_CMD_US</t>
+  </si>
+  <si>
+    <t>M1A1_Abrams_US</t>
+  </si>
+  <si>
+    <t>M1IP_Abrams_CMD_US</t>
+  </si>
+  <si>
+    <t>M1IP_Abrams_US</t>
+  </si>
+  <si>
+    <t>M1_Abrams_US</t>
+  </si>
+  <si>
+    <t>M1_Abrams_CMD_US</t>
+  </si>
+  <si>
+    <t>M60A3_CMD_US</t>
+  </si>
+  <si>
+    <t>M60A3_US</t>
+  </si>
+  <si>
+    <t>ammo_name</t>
+  </si>
+  <si>
+    <t>arme_value</t>
+  </si>
+  <si>
+    <t>arme_family</t>
+  </si>
+  <si>
+    <t>max_range_ground</t>
+  </si>
+  <si>
+    <t>acc_stationary</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>turret_index</t>
+  </si>
+  <si>
+    <t>weapon_index</t>
+  </si>
+  <si>
+    <t>Canon_AP_120_mm_L11A5_Mk9</t>
+  </si>
+  <si>
+    <t>Canon_HE_120_mm_L11A5_Mk9</t>
   </si>
 </sst>
 </file>
@@ -441,15 +626,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D099058-11FA-4459-8E86-F7DD15C7CBA1}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
@@ -458,9 +643,11 @@
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,25 +678,28 @@
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -518,24 +708,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -544,18 +734,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>15</v>
       </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
       <c r="D4">
         <v>8</v>
       </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -564,28 +760,1070 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>15</v>
       </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
       <c r="D5">
         <v>8</v>
       </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="J5">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="K45">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>20</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>18</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>18</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="L49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>18</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>18</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917249CD-8E0F-4F75-8602-A2A546E4DA15}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B95BB1-1922-454E-9D43-3A94A24BB5AB}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>